--- a/data/gebouwprofielen.xlsx
+++ b/data/gebouwprofielen.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/data/gebouwprofielen.xlsx
+++ b/data/gebouwprofielen.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>986</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/data/gebouwprofielen.xlsx
+++ b/data/gebouwprofielen.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/data/gebouwprofielen.xlsx
+++ b/data/gebouwprofielen.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+  <si>
+    <t>impact_all</t>
+  </si>
+  <si>
+    <t>impact_m2</t>
+  </si>
   <si>
     <t>building_type</t>
   </si>
   <si>
     <t>building_sub_type</t>
-  </si>
-  <si>
-    <t>impact_m2</t>
   </si>
   <si>
     <t>Meergezins laag</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,236 +429,239 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>900</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12">
+        <v>278</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>113</v>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
